--- a/LeskovarArbeitsprotokoll.xlsx
+++ b/LeskovarArbeitsprotokoll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lessi/Programs/Robo/Autumn-Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35BCB28-F62D-5B41-AE84-B909B36ABE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1338C2-8A18-3C4F-AD1E-3A6AE620E8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15620" windowHeight="22400" xr2:uid="{9BC8F94E-4280-2347-9DAB-D2A4F2D79BD3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{9BC8F94E-4280-2347-9DAB-D2A4F2D79BD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8316FBC8-CB45-9E4B-AF30-A475F5EF0C83}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,7 +986,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44207</v>
+        <v>44572</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44214</v>
+        <v>44579</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44217</v>
+        <v>44582</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44221</v>
+        <v>44586</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44224</v>
+        <v>44589</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44225</v>
+        <v>44590</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44226</v>
+        <v>44591</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44231</v>
+        <v>44596</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44248</v>
+        <v>44613</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44252</v>
+        <v>44617</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44259</v>
+        <v>44624</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44263</v>
+        <v>44628</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44266</v>
+        <v>44631</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44270</v>
+        <v>44635</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44273</v>
+        <v>44638</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44277</v>
+        <v>44642</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44284</v>
+        <v>44649</v>
       </c>
       <c r="B58">
         <v>2</v>
